--- a/Experimentos/teste_geral/Dataset1/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset1/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{23FA31CF-6FD8-49FD-855B-E6A370CFA82B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD52D8-028F-4611-AA54-FA4ED3282D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>PUZZLE 1 - BEST PER EXPERIMENT</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,23 +638,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
     <sortCondition ref="I3:I258"/>
     <sortCondition ref="J3:J258"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="J6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1005,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1066,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>0.2</v>
@@ -1078,7 +1078,7 @@
         <v>84</v>
       </c>
       <c r="J4">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,25 +1089,25 @@
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
         <v>84</v>
       </c>
       <c r="J5">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1130,13 +1130,13 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
         <v>84</v>
       </c>
       <c r="J6">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1147,25 +1147,25 @@
         <v>1000</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
         <v>84</v>
       </c>
       <c r="J7">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1176,16 +1176,16 @@
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>0.4</v>
@@ -1194,7 +1194,7 @@
         <v>84</v>
       </c>
       <c r="J8">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,25 +1205,25 @@
         <v>1000</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
         <v>84</v>
       </c>
       <c r="J9">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,16 +1234,16 @@
         <v>1000</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>0.2</v>
@@ -1252,7 +1252,7 @@
         <v>84</v>
       </c>
       <c r="J10">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1263,16 +1263,16 @@
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>0.4</v>
@@ -1281,7 +1281,7 @@
         <v>84</v>
       </c>
       <c r="J11">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,16 +1292,16 @@
         <v>1000</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>0.2</v>
@@ -1310,7 +1310,7 @@
         <v>84</v>
       </c>
       <c r="J12">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1321,10 +1321,10 @@
         <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0.7</v>
@@ -1333,13 +1333,13 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
         <v>84</v>
       </c>
       <c r="J13">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1350,16 +1350,16 @@
         <v>1000</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0.7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0.4</v>
@@ -1368,7 +1368,7 @@
         <v>84</v>
       </c>
       <c r="J14">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1379,16 +1379,16 @@
         <v>1000</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0.7</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>0.4</v>
@@ -1397,7 +1397,7 @@
         <v>84</v>
       </c>
       <c r="J15">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1408,25 +1408,25 @@
         <v>1000</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
         <v>84</v>
       </c>
       <c r="J16">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,16 +1437,16 @@
         <v>1000</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>0.4</v>
@@ -1455,7 +1455,7 @@
         <v>84</v>
       </c>
       <c r="J17">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0.7</v>
@@ -1484,7 +1484,7 @@
         <v>84</v>
       </c>
       <c r="J18">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,13 +1498,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0.7</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0.2</v>
@@ -1513,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="J19">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1524,25 +1524,25 @@
         <v>1000</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I20">
         <v>84</v>
       </c>
       <c r="J20">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1553,25 +1553,25 @@
         <v>1000</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0.8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I21">
         <v>84</v>
       </c>
       <c r="J21">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1585,22 +1585,22 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0.8</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I22">
         <v>84</v>
       </c>
       <c r="J22">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1611,16 +1611,16 @@
         <v>1000</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0.7</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0.4</v>
@@ -1629,7 +1629,7 @@
         <v>84</v>
       </c>
       <c r="J23">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1640,25 +1640,25 @@
         <v>1000</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I24">
         <v>84</v>
       </c>
       <c r="J24">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1672,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25">
         <v>0.2</v>
@@ -1687,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="J25">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,25 +1698,25 @@
         <v>1000</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0.8</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
         <v>84</v>
       </c>
       <c r="J26">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,25 +1727,25 @@
         <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I27">
         <v>84</v>
       </c>
       <c r="J27">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1756,25 +1756,25 @@
         <v>1000</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0.7</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I28">
         <v>84</v>
       </c>
       <c r="J28">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>1000</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1797,13 +1797,13 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
         <v>84</v>
       </c>
       <c r="J29">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1814,16 +1814,16 @@
         <v>1000</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>0.2</v>
@@ -1832,7 +1832,7 @@
         <v>84</v>
       </c>
       <c r="J30">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,25 +1843,25 @@
         <v>1000</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
         <v>84</v>
       </c>
       <c r="J31">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,25 +1872,25 @@
         <v>1000</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I32">
         <v>84</v>
       </c>
       <c r="J32">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,25 +1901,25 @@
         <v>1000</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
         <v>84</v>
       </c>
       <c r="J33">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,16 +1930,16 @@
         <v>1000</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>0.7</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>0.2</v>
@@ -1948,7 +1948,7 @@
         <v>84</v>
       </c>
       <c r="J34">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,16 @@
         <v>1000</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>0.2</v>
@@ -1977,7 +1977,7 @@
         <v>84</v>
       </c>
       <c r="J35">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1988,10 +1988,10 @@
         <v>1000</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0.7</v>
@@ -2000,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I36">
         <v>84</v>
       </c>
       <c r="J36">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,16 +2017,16 @@
         <v>1000</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>0.4</v>
@@ -2035,7 +2035,7 @@
         <v>84</v>
       </c>
       <c r="J37">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,13 +2046,13 @@
         <v>1000</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>84</v>
       </c>
       <c r="J38">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2075,16 +2075,16 @@
         <v>1000</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>0.8</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>0.2</v>
@@ -2093,7 +2093,7 @@
         <v>84</v>
       </c>
       <c r="J39">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,10 +2104,10 @@
         <v>1000</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0.7</v>
@@ -2122,7 +2122,7 @@
         <v>84</v>
       </c>
       <c r="J40">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,25 +2133,25 @@
         <v>1000</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>0.7</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
         <v>84</v>
       </c>
       <c r="J41">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2162,25 +2162,25 @@
         <v>1000</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>0.8</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
         <v>84</v>
       </c>
       <c r="J42">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2191,16 +2191,16 @@
         <v>1000</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>0.7</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0.2</v>
@@ -2209,7 +2209,7 @@
         <v>84</v>
       </c>
       <c r="J43">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,16 +2220,16 @@
         <v>1000</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <v>0.4</v>
@@ -2238,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="J44">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,16 +2249,16 @@
         <v>1000</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0.7</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>0.4</v>
@@ -2267,7 +2267,7 @@
         <v>84</v>
       </c>
       <c r="J45">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2278,16 +2278,16 @@
         <v>1000</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>0.7</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>0.2</v>
@@ -2296,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="J46">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2307,25 +2307,25 @@
         <v>1000</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I47">
         <v>84</v>
       </c>
       <c r="J47">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,25 +2336,25 @@
         <v>1000</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I48">
         <v>84</v>
       </c>
       <c r="J48">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>0.7</v>
@@ -2383,7 +2383,7 @@
         <v>84</v>
       </c>
       <c r="J49">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,16 +2394,16 @@
         <v>1000</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G50">
         <v>0.4</v>
@@ -2412,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="J50">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2426,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>0.7</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>0.4</v>
@@ -2441,7 +2441,7 @@
         <v>84</v>
       </c>
       <c r="J51">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2452,16 +2452,16 @@
         <v>1000</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>0.4</v>
@@ -2470,7 +2470,7 @@
         <v>84</v>
       </c>
       <c r="J52">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2481,25 +2481,25 @@
         <v>1000</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
         <v>84</v>
       </c>
       <c r="J53">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2510,16 +2510,16 @@
         <v>1000</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>0.4</v>
@@ -2528,7 +2528,7 @@
         <v>84</v>
       </c>
       <c r="J54">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2539,16 +2539,16 @@
         <v>1000</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>0.2</v>
@@ -2557,7 +2557,7 @@
         <v>84</v>
       </c>
       <c r="J55">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,25 +2568,25 @@
         <v>1000</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>0.8</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
         <v>84</v>
       </c>
       <c r="J56">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2597,25 +2597,25 @@
         <v>1000</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G57">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I57">
         <v>84</v>
       </c>
       <c r="J57">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2629,22 +2629,22 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I58">
         <v>84</v>
       </c>
       <c r="J58">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2655,25 +2655,25 @@
         <v>1000</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I59">
         <v>84</v>
       </c>
       <c r="J59">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>1000</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2693,7 +2693,7 @@
         <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G60">
         <v>0.2</v>
@@ -2702,7 +2702,7 @@
         <v>84</v>
       </c>
       <c r="J60">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2713,25 +2713,25 @@
         <v>1000</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I61">
         <v>84</v>
       </c>
       <c r="J61">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2742,16 +2742,16 @@
         <v>1000</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>0.4</v>
@@ -2760,7 +2760,7 @@
         <v>84</v>
       </c>
       <c r="J62">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2771,16 +2771,16 @@
         <v>1000</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <v>0.4</v>
@@ -2789,7 +2789,7 @@
         <v>84</v>
       </c>
       <c r="J63">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2800,13 +2800,13 @@
         <v>1000</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2818,7 +2818,7 @@
         <v>84</v>
       </c>
       <c r="J64">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2829,25 +2829,25 @@
         <v>1000</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E65">
         <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I65">
         <v>84</v>
       </c>
       <c r="J65">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2858,16 +2858,16 @@
         <v>1000</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G66">
         <v>0.4</v>
@@ -2876,7 +2876,7 @@
         <v>84</v>
       </c>
       <c r="J66">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,25 +2887,25 @@
         <v>1000</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I67">
         <v>84</v>
       </c>
       <c r="J67">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>1000</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2925,16 +2925,16 @@
         <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G68">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I68">
         <v>84</v>
       </c>
       <c r="J68">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2945,16 +2945,16 @@
         <v>1000</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
       <c r="E69">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>0.4</v>
@@ -2963,7 +2963,7 @@
         <v>84</v>
       </c>
       <c r="J69">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2974,25 +2974,25 @@
         <v>1000</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70">
         <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
         <v>84</v>
       </c>
       <c r="J70">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,16 +3003,16 @@
         <v>1000</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E71">
         <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0.2</v>
@@ -3021,7 +3021,7 @@
         <v>84</v>
       </c>
       <c r="J71">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3032,16 +3032,16 @@
         <v>1000</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>0.2</v>
@@ -3050,7 +3050,7 @@
         <v>84</v>
       </c>
       <c r="J72">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3064,22 +3064,22 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G73">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I73">
         <v>84</v>
       </c>
       <c r="J73">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3090,16 +3090,16 @@
         <v>1000</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E74">
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>0.2</v>
@@ -3108,7 +3108,7 @@
         <v>84</v>
       </c>
       <c r="J74">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3119,13 +3119,13 @@
         <v>1000</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3148,10 +3148,10 @@
         <v>1000</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <v>0.8</v>
@@ -3166,7 +3166,7 @@
         <v>84</v>
       </c>
       <c r="J76">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,16 +3177,16 @@
         <v>1000</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G77">
         <v>0.2</v>
@@ -3195,7 +3195,7 @@
         <v>84</v>
       </c>
       <c r="J77">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,16 +3206,16 @@
         <v>1000</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G78">
         <v>0.4</v>
@@ -3224,7 +3224,7 @@
         <v>84</v>
       </c>
       <c r="J78">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3235,25 +3235,25 @@
         <v>1000</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I79">
         <v>84</v>
       </c>
       <c r="J79">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3264,25 +3264,25 @@
         <v>1000</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G80">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I80">
         <v>84</v>
       </c>
       <c r="J80">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,22 +3296,22 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G81">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I81">
         <v>84</v>
       </c>
       <c r="J81">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,13 +3325,13 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>0.2</v>
@@ -3340,7 +3340,7 @@
         <v>84</v>
       </c>
       <c r="J82">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3351,16 +3351,16 @@
         <v>1000</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G83">
         <v>0.2</v>
@@ -3369,7 +3369,7 @@
         <v>84</v>
       </c>
       <c r="J83">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>1000</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -3389,7 +3389,7 @@
         <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G84">
         <v>0.2</v>
@@ -3398,7 +3398,7 @@
         <v>84</v>
       </c>
       <c r="J84">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3409,25 +3409,25 @@
         <v>1000</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E85">
         <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G85">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3441,13 +3441,13 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <v>0.4</v>
@@ -3456,7 +3456,7 @@
         <v>84</v>
       </c>
       <c r="J86">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3467,16 +3467,16 @@
         <v>1000</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>0.2</v>
@@ -3485,7 +3485,7 @@
         <v>84</v>
       </c>
       <c r="J87">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3499,13 +3499,13 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88">
         <v>0.2</v>
@@ -3514,7 +3514,7 @@
         <v>84</v>
       </c>
       <c r="J88">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>1000</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G89">
         <v>0.4</v>
@@ -3543,7 +3543,7 @@
         <v>84</v>
       </c>
       <c r="J89">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3563,16 +3563,16 @@
         <v>0.7</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G90">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90">
         <v>84</v>
       </c>
       <c r="J90">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3586,13 +3586,13 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>0.4</v>
@@ -3601,7 +3601,7 @@
         <v>84</v>
       </c>
       <c r="J91">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3612,16 +3612,16 @@
         <v>1000</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92">
         <v>0.2</v>
@@ -3630,7 +3630,7 @@
         <v>84</v>
       </c>
       <c r="J92">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3641,25 +3641,25 @@
         <v>1000</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I93">
         <v>84</v>
       </c>
       <c r="J93">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3670,16 +3670,16 @@
         <v>1000</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G94">
         <v>0.4</v>
@@ -3688,7 +3688,7 @@
         <v>84</v>
       </c>
       <c r="J94">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,25 +3699,25 @@
         <v>1000</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
         <v>84</v>
       </c>
       <c r="J95">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>0.8</v>
@@ -3746,7 +3746,7 @@
         <v>84</v>
       </c>
       <c r="J96">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3760,22 +3760,22 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G97">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
         <v>84</v>
       </c>
       <c r="J97">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3786,25 +3786,25 @@
         <v>1000</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G98">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I98">
         <v>84</v>
       </c>
       <c r="J98">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3824,16 +3824,16 @@
         <v>0.8</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I99">
         <v>84</v>
       </c>
       <c r="J99">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3844,25 +3844,25 @@
         <v>1000</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>0.8</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G100">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I100">
         <v>84</v>
       </c>
       <c r="J100">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3876,13 +3876,13 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G101">
         <v>0.4</v>
@@ -3891,7 +3891,7 @@
         <v>84</v>
       </c>
       <c r="J101">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3902,25 +3902,25 @@
         <v>1000</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G102">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I102">
         <v>84</v>
       </c>
       <c r="J102">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3934,22 +3934,22 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
         <v>84</v>
       </c>
       <c r="J103">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3963,22 +3963,22 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E104">
         <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G104">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
         <v>84</v>
       </c>
       <c r="J104">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3992,22 +3992,22 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
         <v>84</v>
       </c>
       <c r="J105">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4021,22 +4021,22 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G106">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I106">
         <v>84</v>
       </c>
       <c r="J106">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>1000</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -4056,16 +4056,16 @@
         <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I107">
         <v>84</v>
       </c>
       <c r="J107">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,16 +4076,16 @@
         <v>1000</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <v>0.7</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G108">
         <v>0.4</v>
@@ -4094,7 +4094,7 @@
         <v>84</v>
       </c>
       <c r="J108">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,25 +4105,25 @@
         <v>1000</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G109">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I109">
         <v>84</v>
       </c>
       <c r="J109">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4134,25 +4134,25 @@
         <v>1000</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I110">
         <v>84</v>
       </c>
       <c r="J110">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4163,16 +4163,16 @@
         <v>1000</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G111">
         <v>0.4</v>
@@ -4181,7 +4181,7 @@
         <v>84</v>
       </c>
       <c r="J111">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4201,16 +4201,16 @@
         <v>0.7</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G112">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I112">
         <v>84</v>
       </c>
       <c r="J112">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4230,16 +4230,16 @@
         <v>0.7</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G113">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I113">
         <v>84</v>
       </c>
       <c r="J113">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,25 +4250,25 @@
         <v>1000</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I114">
         <v>84</v>
       </c>
       <c r="J114">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4282,13 +4282,13 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>0.8</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G115">
         <v>0.2</v>
@@ -4297,7 +4297,7 @@
         <v>84</v>
       </c>
       <c r="J115">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4308,16 +4308,16 @@
         <v>1000</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G116">
         <v>0.4</v>
@@ -4326,7 +4326,7 @@
         <v>84</v>
       </c>
       <c r="J116">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4337,25 +4337,25 @@
         <v>1000</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>0.8</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G117">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I117">
         <v>84</v>
       </c>
       <c r="J117">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,25 +4366,25 @@
         <v>1000</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I118">
         <v>84</v>
       </c>
       <c r="J118">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4395,25 +4395,25 @@
         <v>1000</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119">
         <v>0.8</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G119">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I119">
         <v>84</v>
       </c>
       <c r="J119">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4427,22 +4427,22 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G120">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I120">
         <v>84</v>
       </c>
       <c r="J120">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4453,16 +4453,16 @@
         <v>1000</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G121">
         <v>0.4</v>
@@ -4471,7 +4471,7 @@
         <v>84</v>
       </c>
       <c r="J121">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4482,16 +4482,16 @@
         <v>1000</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G122">
         <v>0.2</v>
@@ -4500,7 +4500,7 @@
         <v>84</v>
       </c>
       <c r="J122">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4514,13 +4514,13 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E123">
         <v>0.7</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G123">
         <v>0.4</v>
@@ -4529,7 +4529,7 @@
         <v>84</v>
       </c>
       <c r="J123">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4543,22 +4543,22 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E124">
         <v>0.7</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I124">
         <v>84</v>
       </c>
       <c r="J124">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4572,10 +4572,10 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
@@ -4587,7 +4587,7 @@
         <v>84</v>
       </c>
       <c r="J125">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G126">
         <v>0.4</v>
@@ -4616,7 +4616,7 @@
         <v>84</v>
       </c>
       <c r="J126">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4627,16 +4627,16 @@
         <v>1000</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E127">
         <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G127">
         <v>0.2</v>
@@ -4645,7 +4645,7 @@
         <v>84</v>
       </c>
       <c r="J127">
-        <v>727</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4656,16 +4656,16 @@
         <v>1000</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G128">
         <v>0.2</v>
@@ -4674,7 +4674,7 @@
         <v>84</v>
       </c>
       <c r="J128">
-        <v>741</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4685,16 +4685,16 @@
         <v>1000</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
       </c>
       <c r="E129">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G129">
         <v>0.2</v>
@@ -4703,7 +4703,7 @@
         <v>84</v>
       </c>
       <c r="J129">
-        <v>745</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4714,25 +4714,25 @@
         <v>1000</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G130">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I130">
         <v>84</v>
       </c>
       <c r="J130">
-        <v>754</v>
+        <v>665</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4743,7 +4743,7 @@
         <v>1000</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -4752,7 +4752,7 @@
         <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G131">
         <v>0.4</v>
@@ -4761,7 +4761,7 @@
         <v>84</v>
       </c>
       <c r="J131">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4772,16 +4772,16 @@
         <v>1000</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G132">
         <v>0.4</v>
@@ -4790,7 +4790,7 @@
         <v>84</v>
       </c>
       <c r="J132">
-        <v>761</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4801,25 +4801,25 @@
         <v>1000</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E133">
         <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G133">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I133">
         <v>84</v>
       </c>
       <c r="J133">
-        <v>763</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4830,16 +4830,16 @@
         <v>1000</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G134">
         <v>0.4</v>
@@ -4848,7 +4848,7 @@
         <v>84</v>
       </c>
       <c r="J134">
-        <v>764</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>1000</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -4868,7 +4868,7 @@
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G135">
         <v>0.4</v>
@@ -4877,7 +4877,7 @@
         <v>84</v>
       </c>
       <c r="J135">
-        <v>764</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4888,16 +4888,16 @@
         <v>1000</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G136">
         <v>0.2</v>
@@ -4906,7 +4906,7 @@
         <v>84</v>
       </c>
       <c r="J136">
-        <v>765</v>
+        <v>682</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4917,16 +4917,16 @@
         <v>1000</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G137">
         <v>0.2</v>
@@ -4935,7 +4935,7 @@
         <v>84</v>
       </c>
       <c r="J137">
-        <v>767</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4946,16 +4946,16 @@
         <v>1000</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G138">
         <v>0.2</v>
@@ -4964,7 +4964,7 @@
         <v>84</v>
       </c>
       <c r="J138">
-        <v>767</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4975,25 +4975,25 @@
         <v>1000</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G139">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I139">
         <v>84</v>
       </c>
       <c r="J139">
-        <v>769</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5004,16 +5004,16 @@
         <v>1000</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G140">
         <v>0.2</v>
@@ -5022,7 +5022,7 @@
         <v>84</v>
       </c>
       <c r="J140">
-        <v>769</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5033,16 +5033,16 @@
         <v>1000</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G141">
         <v>0.2</v>
@@ -5051,7 +5051,7 @@
         <v>84</v>
       </c>
       <c r="J141">
-        <v>772</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5062,25 +5062,25 @@
         <v>1000</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E142">
         <v>0.7</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G142">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I142">
         <v>84</v>
       </c>
       <c r="J142">
-        <v>774</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,16 +5091,16 @@
         <v>1000</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G143">
         <v>0.2</v>
@@ -5109,7 +5109,7 @@
         <v>84</v>
       </c>
       <c r="J143">
-        <v>776</v>
+        <v>689</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5120,16 +5120,16 @@
         <v>1000</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G144">
         <v>0.2</v>
@@ -5138,7 +5138,7 @@
         <v>84</v>
       </c>
       <c r="J144">
-        <v>777</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,25 +5149,25 @@
         <v>1000</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G145">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I145">
         <v>84</v>
       </c>
       <c r="J145">
-        <v>778</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5178,16 +5178,16 @@
         <v>1000</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>0.8</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G146">
         <v>0.2</v>
@@ -5196,7 +5196,7 @@
         <v>84</v>
       </c>
       <c r="J146">
-        <v>779</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5207,16 +5207,16 @@
         <v>1000</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G147">
         <v>0.2</v>
@@ -5225,7 +5225,7 @@
         <v>84</v>
       </c>
       <c r="J147">
-        <v>779</v>
+        <v>696</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5236,25 +5236,25 @@
         <v>1000</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G148">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I148">
         <v>84</v>
       </c>
       <c r="J148">
-        <v>780</v>
+        <v>697</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5265,25 +5265,25 @@
         <v>1000</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G149">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I149">
         <v>84</v>
       </c>
       <c r="J149">
-        <v>782</v>
+        <v>698</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5294,16 +5294,16 @@
         <v>1000</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E150">
         <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G150">
         <v>0.2</v>
@@ -5312,7 +5312,7 @@
         <v>84</v>
       </c>
       <c r="J150">
-        <v>783</v>
+        <v>698</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5323,25 +5323,25 @@
         <v>1000</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E151">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G151">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I151">
         <v>84</v>
       </c>
       <c r="J151">
-        <v>783</v>
+        <v>699</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5352,16 +5352,16 @@
         <v>1000</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G152">
         <v>0.4</v>
@@ -5370,7 +5370,7 @@
         <v>84</v>
       </c>
       <c r="J152">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>1000</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -5390,7 +5390,7 @@
         <v>0.8</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G153">
         <v>0.4</v>
@@ -5399,7 +5399,7 @@
         <v>84</v>
       </c>
       <c r="J153">
-        <v>784</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,16 +5410,16 @@
         <v>1000</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G154">
         <v>0.4</v>
@@ -5428,7 +5428,7 @@
         <v>84</v>
       </c>
       <c r="J154">
-        <v>785</v>
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5439,16 +5439,16 @@
         <v>1000</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G155">
         <v>0.4</v>
@@ -5457,7 +5457,7 @@
         <v>84</v>
       </c>
       <c r="J155">
-        <v>786</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5468,16 +5468,16 @@
         <v>1000</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
       </c>
       <c r="E156">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F156" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G156">
         <v>0.4</v>
@@ -5486,7 +5486,7 @@
         <v>84</v>
       </c>
       <c r="J156">
-        <v>788</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5497,16 +5497,16 @@
         <v>1000</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E157">
         <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G157">
         <v>0.4</v>
@@ -5515,7 +5515,7 @@
         <v>84</v>
       </c>
       <c r="J157">
-        <v>788</v>
+        <v>713</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5526,25 +5526,25 @@
         <v>1000</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
       </c>
       <c r="G158">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I158">
         <v>84</v>
       </c>
       <c r="J158">
-        <v>789</v>
+        <v>727</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5555,16 +5555,16 @@
         <v>1000</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E159">
         <v>0.7</v>
       </c>
       <c r="F159" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>0.2</v>
@@ -5573,7 +5573,7 @@
         <v>84</v>
       </c>
       <c r="J159">
-        <v>789</v>
+        <v>734</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5584,16 +5584,16 @@
         <v>1000</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E160">
         <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G160">
         <v>0.2</v>
@@ -5602,7 +5602,7 @@
         <v>84</v>
       </c>
       <c r="J160">
-        <v>791</v>
+        <v>741</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5613,25 +5613,25 @@
         <v>1000</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E161">
         <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G161">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I161">
         <v>84</v>
       </c>
       <c r="J161">
-        <v>791</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5642,25 +5642,25 @@
         <v>1000</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
         <v>84</v>
       </c>
       <c r="J162">
-        <v>791</v>
+        <v>754</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5671,10 +5671,10 @@
         <v>1000</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163">
         <v>0.8</v>
@@ -5689,7 +5689,7 @@
         <v>84</v>
       </c>
       <c r="J163">
-        <v>791</v>
+        <v>761</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5703,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E164">
         <v>0.7</v>
@@ -5718,7 +5718,7 @@
         <v>84</v>
       </c>
       <c r="J164">
-        <v>792</v>
+        <v>763</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E165">
         <v>0.8</v>
@@ -5747,7 +5747,7 @@
         <v>84</v>
       </c>
       <c r="J165">
-        <v>793</v>
+        <v>764</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5758,16 +5758,16 @@
         <v>1000</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
         <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G166">
         <v>0.4</v>
@@ -5776,7 +5776,7 @@
         <v>84</v>
       </c>
       <c r="J166">
-        <v>793</v>
+        <v>764</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5787,25 +5787,25 @@
         <v>1000</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G167">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I167">
         <v>84</v>
       </c>
       <c r="J167">
-        <v>793</v>
+        <v>767</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5816,16 +5816,16 @@
         <v>1000</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E168">
         <v>0.7</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G168">
         <v>0.2</v>
@@ -5834,7 +5834,7 @@
         <v>84</v>
       </c>
       <c r="J168">
-        <v>793</v>
+        <v>767</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5845,16 +5845,16 @@
         <v>1000</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E169">
         <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>0.2</v>
@@ -5863,7 +5863,7 @@
         <v>84</v>
       </c>
       <c r="J169">
-        <v>794</v>
+        <v>769</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5874,10 +5874,10 @@
         <v>1000</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>0.7</v>
@@ -5886,13 +5886,13 @@
         <v>10</v>
       </c>
       <c r="G170">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I170">
         <v>84</v>
       </c>
       <c r="J170">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5903,16 +5903,16 @@
         <v>1000</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G171">
         <v>0.2</v>
@@ -5921,7 +5921,7 @@
         <v>84</v>
       </c>
       <c r="J171">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5932,16 +5932,16 @@
         <v>1000</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G172">
         <v>0.2</v>
@@ -5950,7 +5950,7 @@
         <v>84</v>
       </c>
       <c r="J172">
-        <v>799</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5961,25 +5961,25 @@
         <v>1000</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
       </c>
       <c r="E173">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I173">
         <v>84</v>
       </c>
       <c r="J173">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5993,13 +5993,13 @@
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E174">
         <v>0.8</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G174">
         <v>0.2</v>
@@ -6008,7 +6008,7 @@
         <v>84</v>
       </c>
       <c r="J174">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,16 +6019,16 @@
         <v>1000</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E175">
         <v>0.8</v>
       </c>
       <c r="F175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G175">
         <v>0.2</v>
@@ -6037,7 +6037,7 @@
         <v>84</v>
       </c>
       <c r="J175">
-        <v>802</v>
+        <v>780</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6048,25 +6048,25 @@
         <v>1000</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E176">
         <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G176">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I176">
         <v>84</v>
       </c>
       <c r="J176">
-        <v>802</v>
+        <v>780</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6080,13 +6080,13 @@
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E177">
         <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G177">
         <v>0.2</v>
@@ -6095,7 +6095,7 @@
         <v>84</v>
       </c>
       <c r="J177">
-        <v>803</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,7 +6115,7 @@
         <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G178">
         <v>0.2</v>
@@ -6124,7 +6124,7 @@
         <v>84</v>
       </c>
       <c r="J178">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>1000</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
@@ -6144,16 +6144,16 @@
         <v>0.8</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I179">
         <v>84</v>
       </c>
       <c r="J179">
-        <v>805</v>
+        <v>783</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6164,25 +6164,25 @@
         <v>1000</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I180">
         <v>84</v>
       </c>
       <c r="J180">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6193,25 +6193,25 @@
         <v>1000</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E181">
         <v>0.8</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
         <v>84</v>
       </c>
       <c r="J181">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6222,25 +6222,25 @@
         <v>1000</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I182">
         <v>84</v>
       </c>
       <c r="J182">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6251,25 +6251,25 @@
         <v>1000</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G183">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I183">
         <v>84</v>
       </c>
       <c r="J183">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6280,25 +6280,25 @@
         <v>1000</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G184">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I184">
         <v>84</v>
       </c>
       <c r="J184">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>1000</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>0.7</v>
@@ -6327,7 +6327,7 @@
         <v>84</v>
       </c>
       <c r="J185">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6338,25 +6338,25 @@
         <v>1000</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E186">
         <v>0.8</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G186">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I186">
         <v>84</v>
       </c>
       <c r="J186">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6367,25 +6367,25 @@
         <v>1000</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E187">
         <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I187">
         <v>84</v>
       </c>
       <c r="J187">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>0.7</v>
@@ -6414,7 +6414,7 @@
         <v>84</v>
       </c>
       <c r="J188">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6425,25 +6425,25 @@
         <v>1000</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>0.7</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
         <v>84</v>
       </c>
       <c r="J189">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6454,25 +6454,25 @@
         <v>1000</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E190">
         <v>0.7</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G190">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I190">
         <v>84</v>
       </c>
       <c r="J190">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6483,25 +6483,25 @@
         <v>1000</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191">
         <v>0.7</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G191">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I191">
         <v>84</v>
       </c>
       <c r="J191">
-        <v>814</v>
+        <v>792</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6512,25 +6512,25 @@
         <v>1000</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G192">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I192">
         <v>84</v>
       </c>
       <c r="J192">
-        <v>815</v>
+        <v>793</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6541,10 +6541,10 @@
         <v>1000</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E193">
         <v>0.7</v>
@@ -6559,7 +6559,7 @@
         <v>84</v>
       </c>
       <c r="J193">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6570,25 +6570,25 @@
         <v>1000</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
         <v>84</v>
       </c>
       <c r="J194">
-        <v>817</v>
+        <v>794</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6599,10 +6599,10 @@
         <v>1000</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E195">
         <v>0.7</v>
@@ -6617,7 +6617,7 @@
         <v>84</v>
       </c>
       <c r="J195">
-        <v>819</v>
+        <v>795</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6628,16 +6628,16 @@
         <v>1000</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0.8</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G196">
         <v>0.2</v>
@@ -6646,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="J196">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6657,25 +6657,25 @@
         <v>1000</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G197">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I197">
         <v>84</v>
       </c>
       <c r="J197">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6686,16 +6686,16 @@
         <v>1000</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E198">
         <v>0.8</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <v>0.2</v>
@@ -6704,7 +6704,7 @@
         <v>84</v>
       </c>
       <c r="J198">
-        <v>824</v>
+        <v>802</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6715,10 +6715,10 @@
         <v>1000</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E199">
         <v>0.7</v>
@@ -6733,7 +6733,7 @@
         <v>84</v>
       </c>
       <c r="J199">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6747,13 +6747,13 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G200">
         <v>0.2</v>
@@ -6762,7 +6762,7 @@
         <v>84</v>
       </c>
       <c r="J200">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6776,13 +6776,13 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E201">
         <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G201">
         <v>0.2</v>
@@ -6791,7 +6791,7 @@
         <v>84</v>
       </c>
       <c r="J201">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6802,25 +6802,25 @@
         <v>1000</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I202">
         <v>84</v>
       </c>
       <c r="J202">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6831,10 +6831,10 @@
         <v>1000</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E203">
         <v>0.8</v>
@@ -6843,13 +6843,13 @@
         <v>10</v>
       </c>
       <c r="G203">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I203">
         <v>84</v>
       </c>
       <c r="J203">
-        <v>831</v>
+        <v>807</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6860,16 +6860,16 @@
         <v>1000</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G204">
         <v>0.4</v>
@@ -6878,7 +6878,7 @@
         <v>84</v>
       </c>
       <c r="J204">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6889,16 +6889,16 @@
         <v>1000</v>
       </c>
       <c r="C205" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E205">
         <v>0.7</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G205">
         <v>0.4</v>
@@ -6907,7 +6907,7 @@
         <v>84</v>
       </c>
       <c r="J205">
-        <v>832</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6921,13 +6921,13 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E206">
         <v>0.7</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G206">
         <v>0.2</v>
@@ -6936,7 +6936,7 @@
         <v>84</v>
       </c>
       <c r="J206">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6950,13 +6950,13 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E207">
         <v>0.7</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G207">
         <v>0.2</v>
@@ -6965,7 +6965,7 @@
         <v>84</v>
       </c>
       <c r="J207">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6979,22 +6979,22 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208">
         <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G208">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I208">
         <v>84</v>
       </c>
       <c r="J208">
-        <v>834</v>
+        <v>816</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7008,22 +7008,22 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G209">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I209">
         <v>84</v>
       </c>
       <c r="J209">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7034,16 +7034,16 @@
         <v>1000</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E210">
         <v>0.7</v>
       </c>
       <c r="F210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G210">
         <v>0.4</v>
@@ -7052,7 +7052,7 @@
         <v>84</v>
       </c>
       <c r="J210">
-        <v>835</v>
+        <v>819</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7063,25 +7063,25 @@
         <v>1000</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E211">
         <v>0.8</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
         <v>84</v>
       </c>
       <c r="J211">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7095,22 +7095,22 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G212">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I212">
         <v>84</v>
       </c>
       <c r="J212">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7124,10 +7124,10 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -7139,7 +7139,7 @@
         <v>84</v>
       </c>
       <c r="J213">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7153,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E214">
         <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G214">
         <v>0.2</v>
@@ -7168,7 +7168,7 @@
         <v>84</v>
       </c>
       <c r="J214">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7182,13 +7182,13 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E215">
         <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G215">
         <v>0.4</v>
@@ -7197,7 +7197,7 @@
         <v>84</v>
       </c>
       <c r="J215">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7208,16 +7208,16 @@
         <v>1000</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E216">
         <v>0.7</v>
       </c>
       <c r="F216" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G216">
         <v>0.4</v>
@@ -7226,7 +7226,7 @@
         <v>84</v>
       </c>
       <c r="J216">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7237,16 +7237,16 @@
         <v>1000</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
         <v>8</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G217">
         <v>0.4</v>
@@ -7255,7 +7255,7 @@
         <v>84</v>
       </c>
       <c r="J217">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7269,22 +7269,22 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218">
         <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G218">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I218">
         <v>84</v>
       </c>
       <c r="J218">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7295,25 +7295,25 @@
         <v>1000</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G219">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I219">
         <v>84</v>
       </c>
       <c r="J219">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7324,16 +7324,16 @@
         <v>1000</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G220">
         <v>0.4</v>
@@ -7342,7 +7342,7 @@
         <v>84</v>
       </c>
       <c r="J220">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7353,16 +7353,16 @@
         <v>1000</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E221">
         <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G221">
         <v>0.2</v>
@@ -7371,7 +7371,7 @@
         <v>84</v>
       </c>
       <c r="J221">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>1000</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
@@ -7391,7 +7391,7 @@
         <v>0.7</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G222">
         <v>0.2</v>
@@ -7400,7 +7400,7 @@
         <v>84</v>
       </c>
       <c r="J222">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7414,22 +7414,22 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G223">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I223">
         <v>84</v>
       </c>
       <c r="J223">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7443,22 +7443,22 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G224">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I224">
         <v>84</v>
       </c>
       <c r="J224">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7472,22 +7472,22 @@
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E225">
         <v>0.8</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G225">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I225">
         <v>84</v>
       </c>
       <c r="J225">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7501,22 +7501,22 @@
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F226" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G226">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I226">
         <v>84</v>
       </c>
       <c r="J226">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7527,16 +7527,16 @@
         <v>1000</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G227">
         <v>0.2</v>
@@ -7545,7 +7545,7 @@
         <v>84</v>
       </c>
       <c r="J227">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7556,16 +7556,16 @@
         <v>1000</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G228">
         <v>0.4</v>
@@ -7574,7 +7574,7 @@
         <v>84</v>
       </c>
       <c r="J228">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7585,16 +7585,16 @@
         <v>1000</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G229">
         <v>0.4</v>
@@ -7603,7 +7603,7 @@
         <v>84</v>
       </c>
       <c r="J229">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7617,7 +7617,7 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E230">
         <v>0.7</v>
@@ -7646,13 +7646,13 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G231">
         <v>0.4</v>
@@ -7661,7 +7661,7 @@
         <v>84</v>
       </c>
       <c r="J231">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7672,25 +7672,25 @@
         <v>1000</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G232">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I232">
         <v>84</v>
       </c>
       <c r="J232">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7704,22 +7704,22 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E233">
         <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G233">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I233">
         <v>84</v>
       </c>
       <c r="J233">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7730,25 +7730,25 @@
         <v>1000</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E234">
         <v>0.7</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G234">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I234">
         <v>84</v>
       </c>
       <c r="J234">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7762,13 +7762,13 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G235">
         <v>0.4</v>
@@ -7777,7 +7777,7 @@
         <v>84</v>
       </c>
       <c r="J235">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7791,13 +7791,13 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E236">
         <v>0.8</v>
       </c>
       <c r="F236" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G236">
         <v>0.4</v>
@@ -7806,7 +7806,7 @@
         <v>84</v>
       </c>
       <c r="J236">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7817,7 +7817,7 @@
         <v>1000</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
         <v>8</v>
@@ -7826,16 +7826,16 @@
         <v>0.7</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G237">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I237">
         <v>84</v>
       </c>
       <c r="J237">
-        <v>874</v>
+        <v>888</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7849,22 +7849,22 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E238">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I238">
         <v>84</v>
       </c>
       <c r="J238">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7875,16 +7875,16 @@
         <v>1000</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E239">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G239">
         <v>0.4</v>
@@ -7893,7 +7893,7 @@
         <v>84</v>
       </c>
       <c r="J239">
-        <v>876</v>
+        <v>892</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7907,22 +7907,22 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E240">
         <v>0.8</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I240">
         <v>84</v>
       </c>
       <c r="J240">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7936,22 +7936,22 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G241">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I241">
         <v>84</v>
       </c>
       <c r="J241">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -7971,16 +7971,16 @@
         <v>0.8</v>
       </c>
       <c r="F242" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G242">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I242">
         <v>84</v>
       </c>
       <c r="J242">
-        <v>880</v>
+        <v>902</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7994,13 +7994,13 @@
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F243" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G243">
         <v>0.4</v>
@@ -8009,7 +8009,7 @@
         <v>84</v>
       </c>
       <c r="J243">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8023,13 +8023,13 @@
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E244">
         <v>0.8</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G244">
         <v>0.2</v>
@@ -8038,7 +8038,7 @@
         <v>84</v>
       </c>
       <c r="J244">
-        <v>882</v>
+        <v>903</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8052,13 +8052,13 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E245">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F245" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G245">
         <v>0.2</v>
@@ -8067,7 +8067,7 @@
         <v>84</v>
       </c>
       <c r="J245">
-        <v>884</v>
+        <v>915</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8081,22 +8081,22 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E246">
         <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G246">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I246">
         <v>84</v>
       </c>
       <c r="J246">
-        <v>886</v>
+        <v>938</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8110,13 +8110,13 @@
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G247">
         <v>0.4</v>
@@ -8125,7 +8125,7 @@
         <v>84</v>
       </c>
       <c r="J247">
-        <v>895</v>
+        <v>939</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8139,13 +8139,13 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G248">
         <v>0.4</v>
@@ -8154,7 +8154,7 @@
         <v>84</v>
       </c>
       <c r="J248">
-        <v>899</v>
+        <v>939</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8168,22 +8168,22 @@
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G249">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I249">
         <v>84</v>
       </c>
       <c r="J249">
-        <v>900</v>
+        <v>944</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -8197,13 +8197,13 @@
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G250">
         <v>0.4</v>
@@ -8212,7 +8212,7 @@
         <v>84</v>
       </c>
       <c r="J250">
-        <v>904</v>
+        <v>944</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8223,16 +8223,16 @@
         <v>1000</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G251">
         <v>0.4</v>
@@ -8241,7 +8241,7 @@
         <v>84</v>
       </c>
       <c r="J251">
-        <v>904</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8255,13 +8255,13 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E252">
         <v>0.7</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G252">
         <v>0.4</v>
@@ -8270,7 +8270,7 @@
         <v>84</v>
       </c>
       <c r="J252">
-        <v>926</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8284,22 +8284,22 @@
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E253">
         <v>0.7</v>
       </c>
       <c r="F253" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G253">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I253">
         <v>84</v>
       </c>
       <c r="J253">
-        <v>931</v>
+        <v>987</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -8310,10 +8310,10 @@
         <v>1000</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E254">
         <v>0.7</v>
@@ -8342,7 +8342,7 @@
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E255">
         <v>0.8</v>
@@ -8371,7 +8371,7 @@
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E256">
         <v>0.7</v>
@@ -8397,10 +8397,10 @@
         <v>1000</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E257">
         <v>0.8</v>

--- a/Experimentos/teste_geral/Dataset1/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset1/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD52D8-028F-4611-AA54-FA4ED3282D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6543B8E-4DDE-4160-B803-73B143104B0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="20">
   <si>
     <t>Population size:</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Swap</t>
   </si>
   <si>
+    <t>Inversion</t>
+  </si>
+  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -67,28 +70,22 @@
     <t>Tournament(4)</t>
   </si>
   <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
     <t>Recombination prob,:</t>
   </si>
   <si>
     <t>Mutation prob,:</t>
   </si>
   <si>
-    <t>PUZZLE 1 - BEST PER EXPERIMENT</t>
+    <t>Coluna1</t>
   </si>
   <si>
-    <t>Inversion</t>
-  </si>
-  <si>
-    <t>Scramble</t>
+    <t>PUZZLE 1 - BEST PER EXPERIMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +574,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -638,23 +635,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
-    <sortCondition ref="I3:I258"/>
-    <sortCondition ref="J3:J258"/>
+    <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
+    <tableColumn id="1" name="Population size:"/>
+    <tableColumn id="2" name="Max generations:"/>
+    <tableColumn id="3" name="Selection:"/>
+    <tableColumn id="4" name="Recombination:"/>
+    <tableColumn id="5" name="Recombination prob,:"/>
+    <tableColumn id="6" name="Mutation:"/>
+    <tableColumn id="7" name="Mutation prob,:"/>
+    <tableColumn id="8" name="Coluna1"/>
+    <tableColumn id="9" name="Fitness:"/>
+    <tableColumn id="10" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A6:J6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,9 +973,9 @@
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1014,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1028,7 +1024,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1043,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
         <v>84</v>
       </c>
       <c r="J3">
-        <v>332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1053,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1066,19 +1062,19 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
         <v>84</v>
       </c>
       <c r="J4">
-        <v>339</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,7 +1082,7 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1095,10 +1091,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1107,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="J5">
-        <v>339</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1115,7 +1111,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1130,13 +1126,13 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I6">
         <v>84</v>
       </c>
       <c r="J6">
-        <v>341</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,7 +1140,7 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1156,16 +1152,16 @@
         <v>0.7</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
         <v>84</v>
       </c>
       <c r="J7">
-        <v>344</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,7 +1169,7 @@
         <v>100</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1185,7 +1181,7 @@
         <v>0.7</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.4</v>
@@ -1194,7 +1190,7 @@
         <v>84</v>
       </c>
       <c r="J8">
-        <v>346</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1202,20 +1198,20 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0.7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
       <c r="G9">
         <v>0.2</v>
       </c>
@@ -1223,7 +1219,7 @@
         <v>84</v>
       </c>
       <c r="J9">
-        <v>346</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,28 +1227,28 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
         <v>84</v>
       </c>
       <c r="J10">
-        <v>351</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,7 +1256,7 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1272,16 +1268,16 @@
         <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
         <v>84</v>
       </c>
       <c r="J11">
-        <v>354</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,28 +1285,28 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
         <v>84</v>
       </c>
       <c r="J12">
-        <v>354</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1318,28 +1314,28 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
         <v>84</v>
       </c>
       <c r="J13">
-        <v>357</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,7 +1343,7 @@
         <v>100</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1356,10 +1352,10 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0.4</v>
@@ -1368,7 +1364,7 @@
         <v>84</v>
       </c>
       <c r="J14">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,19 +1372,19 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0.4</v>
@@ -1397,7 +1393,7 @@
         <v>84</v>
       </c>
       <c r="J15">
-        <v>360</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,19 +1401,19 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0.4</v>
@@ -1426,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="J16">
-        <v>360</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,28 +1430,28 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
         <v>84</v>
       </c>
       <c r="J17">
-        <v>364</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,7 +1459,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1472,10 +1468,10 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>0.4</v>
@@ -1484,7 +1480,7 @@
         <v>84</v>
       </c>
       <c r="J18">
-        <v>365</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,7 +1488,7 @@
         <v>100</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1504,7 +1500,7 @@
         <v>0.7</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0.2</v>
@@ -1513,7 +1509,7 @@
         <v>84</v>
       </c>
       <c r="J19">
-        <v>368</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,16 +1517,16 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1542,7 +1538,7 @@
         <v>84</v>
       </c>
       <c r="J20">
-        <v>369</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1550,28 +1546,28 @@
         <v>100</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
         <v>84</v>
       </c>
       <c r="J21">
-        <v>372</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,19 +1575,19 @@
         <v>100</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>0.4</v>
@@ -1600,7 +1596,7 @@
         <v>84</v>
       </c>
       <c r="J22">
-        <v>374</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1608,19 +1604,19 @@
         <v>100</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0.7</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>0.4</v>
@@ -1629,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="J23">
-        <v>376</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1637,16 +1633,16 @@
         <v>100</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1658,7 +1654,7 @@
         <v>84</v>
       </c>
       <c r="J24">
-        <v>377</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1678,7 +1674,7 @@
         <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>0.2</v>
@@ -1687,7 +1683,7 @@
         <v>84</v>
       </c>
       <c r="J25">
-        <v>377</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1695,28 +1691,28 @@
         <v>100</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I26">
         <v>84</v>
       </c>
       <c r="J26">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1724,19 +1720,19 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0.2</v>
@@ -1745,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="J27">
-        <v>378</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1753,19 +1749,19 @@
         <v>100</v>
       </c>
       <c r="B28">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <v>0.4</v>
@@ -1774,7 +1770,7 @@
         <v>84</v>
       </c>
       <c r="J28">
-        <v>378</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1782,28 +1778,28 @@
         <v>100</v>
       </c>
       <c r="B29">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I29">
         <v>84</v>
       </c>
       <c r="J29">
-        <v>380</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1811,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0.8</v>
@@ -1826,13 +1822,13 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I30">
         <v>84</v>
       </c>
       <c r="J30">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1840,13 +1836,13 @@
         <v>100</v>
       </c>
       <c r="B31">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0.8</v>
@@ -1861,7 +1857,7 @@
         <v>84</v>
       </c>
       <c r="J31">
-        <v>381</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1869,16 +1865,16 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1890,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="J32">
-        <v>382</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,19 +1894,19 @@
         <v>100</v>
       </c>
       <c r="B33">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>0.2</v>
@@ -1919,7 +1915,7 @@
         <v>84</v>
       </c>
       <c r="J33">
-        <v>382</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1927,28 +1923,28 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I34">
         <v>84</v>
       </c>
       <c r="J34">
-        <v>384</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,7 +1952,7 @@
         <v>100</v>
       </c>
       <c r="B35">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1965,19 +1961,19 @@
         <v>13</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I35">
         <v>84</v>
       </c>
       <c r="J35">
-        <v>387</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,10 +1981,10 @@
         <v>100</v>
       </c>
       <c r="B36">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2000,13 +1996,13 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
         <v>84</v>
       </c>
       <c r="J36">
-        <v>388</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,19 +2010,19 @@
         <v>100</v>
       </c>
       <c r="B37">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0.7</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>0.4</v>
@@ -2035,7 +2031,7 @@
         <v>84</v>
       </c>
       <c r="J37">
-        <v>388</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,19 +2039,19 @@
         <v>100</v>
       </c>
       <c r="B38">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>0.4</v>
@@ -2064,7 +2060,7 @@
         <v>84</v>
       </c>
       <c r="J38">
-        <v>390</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2072,28 +2068,28 @@
         <v>100</v>
       </c>
       <c r="B39">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
         <v>84</v>
       </c>
       <c r="J39">
-        <v>390</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2101,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="B40">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2113,7 +2109,7 @@
         <v>0.7</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>0.2</v>
@@ -2122,7 +2118,7 @@
         <v>84</v>
       </c>
       <c r="J40">
-        <v>391</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2130,28 +2126,28 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>0.7</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
         <v>84</v>
       </c>
       <c r="J41">
-        <v>392</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2159,13 +2155,13 @@
         <v>100</v>
       </c>
       <c r="B42">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0.8</v>
@@ -2174,13 +2170,13 @@
         <v>9</v>
       </c>
       <c r="G42">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I42">
         <v>84</v>
       </c>
       <c r="J42">
-        <v>394</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,16 +2184,16 @@
         <v>100</v>
       </c>
       <c r="B43">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2209,7 +2205,7 @@
         <v>84</v>
       </c>
       <c r="J43">
-        <v>396</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,19 +2213,19 @@
         <v>100</v>
       </c>
       <c r="B44">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>0.4</v>
@@ -2238,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="J44">
-        <v>398</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2246,19 +2242,19 @@
         <v>100</v>
       </c>
       <c r="B45">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="E45">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>0.4</v>
@@ -2267,7 +2263,7 @@
         <v>84</v>
       </c>
       <c r="J45">
-        <v>398</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2275,28 +2271,28 @@
         <v>100</v>
       </c>
       <c r="B46">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
       <c r="G46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I46">
         <v>84</v>
       </c>
       <c r="J46">
-        <v>398</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,20 +2300,20 @@
         <v>100</v>
       </c>
       <c r="B47">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="E47">
-        <v>0.8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
       <c r="G47">
         <v>0.2</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>84</v>
       </c>
       <c r="J47">
-        <v>398</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,19 +2329,19 @@
         <v>100</v>
       </c>
       <c r="B48">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G48">
         <v>0.4</v>
@@ -2354,7 +2350,7 @@
         <v>84</v>
       </c>
       <c r="J48">
-        <v>398</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,13 +2358,13 @@
         <v>100</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
         <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
       </c>
       <c r="E49">
         <v>0.7</v>
@@ -2383,7 +2379,7 @@
         <v>84</v>
       </c>
       <c r="J49">
-        <v>399</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2391,19 +2387,19 @@
         <v>100</v>
       </c>
       <c r="B50">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
       <c r="E50">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G50">
         <v>0.4</v>
@@ -2412,7 +2408,7 @@
         <v>84</v>
       </c>
       <c r="J50">
-        <v>399</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,28 +2416,28 @@
         <v>100</v>
       </c>
       <c r="B51">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>0.7</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
         <v>84</v>
       </c>
       <c r="J51">
-        <v>400</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,16 +2445,16 @@
         <v>100</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
       <c r="E52">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2470,7 +2466,7 @@
         <v>84</v>
       </c>
       <c r="J52">
-        <v>400</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2478,19 +2474,19 @@
         <v>100</v>
       </c>
       <c r="B53">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
       <c r="E53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>0.4</v>
@@ -2499,7 +2495,7 @@
         <v>84</v>
       </c>
       <c r="J53">
-        <v>401</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2507,16 +2503,16 @@
         <v>100</v>
       </c>
       <c r="B54">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2528,7 +2524,7 @@
         <v>84</v>
       </c>
       <c r="J54">
-        <v>402</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2536,19 +2532,19 @@
         <v>100</v>
       </c>
       <c r="B55">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
       <c r="E55">
         <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55">
         <v>0.2</v>
@@ -2557,7 +2553,7 @@
         <v>84</v>
       </c>
       <c r="J55">
-        <v>403</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,28 +2561,28 @@
         <v>100</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56">
+        <v>0.7</v>
+      </c>
+      <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="E56">
-        <v>0.8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
       <c r="G56">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I56">
         <v>84</v>
       </c>
       <c r="J56">
-        <v>403</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,19 +2590,19 @@
         <v>100</v>
       </c>
       <c r="B57">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
       <c r="E57">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>0.2</v>
@@ -2615,7 +2611,7 @@
         <v>84</v>
       </c>
       <c r="J57">
-        <v>403</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2623,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="B58">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>0.8</v>
@@ -2644,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="J58">
-        <v>404</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2652,19 +2648,19 @@
         <v>100</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>0.8</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>0.2</v>
@@ -2673,7 +2669,7 @@
         <v>84</v>
       </c>
       <c r="J59">
-        <v>404</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,28 +2677,28 @@
         <v>100</v>
       </c>
       <c r="B60">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
       <c r="E60">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I60">
         <v>84</v>
       </c>
       <c r="J60">
-        <v>404</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,28 +2706,28 @@
         <v>100</v>
       </c>
       <c r="B61">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
         <v>84</v>
       </c>
       <c r="J61">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2739,16 +2735,16 @@
         <v>100</v>
       </c>
       <c r="B62">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2760,7 +2756,7 @@
         <v>84</v>
       </c>
       <c r="J62">
-        <v>405</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2768,28 +2764,28 @@
         <v>100</v>
       </c>
       <c r="B63">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
       <c r="E63">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I63">
         <v>84</v>
       </c>
       <c r="J63">
-        <v>406</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2797,28 +2793,28 @@
         <v>100</v>
       </c>
       <c r="B64">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
       <c r="E64">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I64">
         <v>84</v>
       </c>
       <c r="J64">
-        <v>406</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2826,28 +2822,28 @@
         <v>100</v>
       </c>
       <c r="B65">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I65">
         <v>84</v>
       </c>
       <c r="J65">
-        <v>409</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2855,10 +2851,10 @@
         <v>100</v>
       </c>
       <c r="B66">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2867,7 +2863,7 @@
         <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <v>0.4</v>
@@ -2876,7 +2872,7 @@
         <v>84</v>
       </c>
       <c r="J66">
-        <v>409</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2884,10 +2880,10 @@
         <v>100</v>
       </c>
       <c r="B67">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -2896,7 +2892,7 @@
         <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>0.2</v>
@@ -2905,7 +2901,7 @@
         <v>84</v>
       </c>
       <c r="J67">
-        <v>410</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2913,10 +2909,10 @@
         <v>100</v>
       </c>
       <c r="B68">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2925,7 +2921,7 @@
         <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>0.4</v>
@@ -2934,7 +2930,7 @@
         <v>84</v>
       </c>
       <c r="J68">
-        <v>410</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,19 +2938,19 @@
         <v>100</v>
       </c>
       <c r="B69">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>0.4</v>
@@ -2963,7 +2959,7 @@
         <v>84</v>
       </c>
       <c r="J69">
-        <v>411</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2971,19 +2967,19 @@
         <v>100</v>
       </c>
       <c r="B70">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>0.4</v>
@@ -2992,7 +2988,7 @@
         <v>84</v>
       </c>
       <c r="J70">
-        <v>411</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3000,19 +2996,19 @@
         <v>100</v>
       </c>
       <c r="B71">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71">
         <v>0.2</v>
@@ -3021,7 +3017,7 @@
         <v>84</v>
       </c>
       <c r="J71">
-        <v>414</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,28 +3025,28 @@
         <v>100</v>
       </c>
       <c r="B72">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I72">
         <v>84</v>
       </c>
       <c r="J72">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,19 +3054,19 @@
         <v>100</v>
       </c>
       <c r="B73">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>0.8</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G73">
         <v>0.2</v>
@@ -3079,7 +3075,7 @@
         <v>84</v>
       </c>
       <c r="J73">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,28 +3083,28 @@
         <v>100</v>
       </c>
       <c r="B74">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I74">
         <v>84</v>
       </c>
       <c r="J74">
-        <v>419</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3116,13 +3112,13 @@
         <v>100</v>
       </c>
       <c r="B75">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E75">
         <v>0.8</v>
@@ -3137,7 +3133,7 @@
         <v>84</v>
       </c>
       <c r="J75">
-        <v>419</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3145,13 +3141,13 @@
         <v>100</v>
       </c>
       <c r="B76">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>0.8</v>
@@ -3160,13 +3156,13 @@
         <v>10</v>
       </c>
       <c r="G76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I76">
         <v>84</v>
       </c>
       <c r="J76">
-        <v>421</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3174,28 +3170,28 @@
         <v>100</v>
       </c>
       <c r="B77">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
         <v>84</v>
       </c>
       <c r="J77">
-        <v>421</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3203,19 +3199,19 @@
         <v>100</v>
       </c>
       <c r="B78">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>0.4</v>
@@ -3224,7 +3220,7 @@
         <v>84</v>
       </c>
       <c r="J78">
-        <v>422</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,28 +3228,28 @@
         <v>100</v>
       </c>
       <c r="B79">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G79">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I79">
         <v>84</v>
       </c>
       <c r="J79">
-        <v>422</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3261,28 +3257,28 @@
         <v>100</v>
       </c>
       <c r="B80">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I80">
         <v>84</v>
       </c>
       <c r="J80">
-        <v>423</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3290,19 +3286,19 @@
         <v>100</v>
       </c>
       <c r="B81">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>0.4</v>
@@ -3311,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="J81">
-        <v>425</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3319,16 +3315,16 @@
         <v>100</v>
       </c>
       <c r="B82">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3340,7 +3336,7 @@
         <v>84</v>
       </c>
       <c r="J82">
-        <v>428</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3348,28 +3344,28 @@
         <v>100</v>
       </c>
       <c r="B83">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I83">
         <v>84</v>
       </c>
       <c r="J83">
-        <v>429</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3377,28 +3373,28 @@
         <v>100</v>
       </c>
       <c r="B84">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I84">
         <v>84</v>
       </c>
       <c r="J84">
-        <v>429</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,28 +3402,28 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85">
-        <v>430</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3435,28 +3431,28 @@
         <v>100</v>
       </c>
       <c r="B86">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I86">
         <v>84</v>
       </c>
       <c r="J86">
-        <v>431</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,28 +3460,28 @@
         <v>100</v>
       </c>
       <c r="B87">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>0.7</v>
+      </c>
+      <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="E87">
-        <v>0.7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
       <c r="G87">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I87">
         <v>84</v>
       </c>
       <c r="J87">
-        <v>431</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3493,19 +3489,19 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G88">
         <v>0.2</v>
@@ -3514,7 +3510,7 @@
         <v>84</v>
       </c>
       <c r="J88">
-        <v>431</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3522,19 +3518,19 @@
         <v>100</v>
       </c>
       <c r="B89">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G89">
         <v>0.4</v>
@@ -3543,7 +3539,7 @@
         <v>84</v>
       </c>
       <c r="J89">
-        <v>433</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3551,28 +3547,28 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I90">
         <v>84</v>
       </c>
       <c r="J90">
-        <v>434</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3580,13 +3576,13 @@
         <v>100</v>
       </c>
       <c r="B91">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91">
         <v>0.8</v>
@@ -3601,7 +3597,7 @@
         <v>84</v>
       </c>
       <c r="J91">
-        <v>435</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3609,28 +3605,28 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92">
         <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I92">
         <v>84</v>
       </c>
       <c r="J92">
-        <v>436</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3638,10 +3634,10 @@
         <v>100</v>
       </c>
       <c r="B93">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3650,16 +3646,16 @@
         <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
         <v>84</v>
       </c>
       <c r="J93">
-        <v>436</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3667,28 +3663,28 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
         <v>84</v>
       </c>
       <c r="J94">
-        <v>436</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3696,19 +3692,19 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G95">
         <v>0.4</v>
@@ -3717,7 +3713,7 @@
         <v>84</v>
       </c>
       <c r="J95">
-        <v>437</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3725,28 +3721,28 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I96">
         <v>84</v>
       </c>
       <c r="J96">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3754,19 +3750,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G97">
         <v>0.4</v>
@@ -3775,7 +3771,7 @@
         <v>84</v>
       </c>
       <c r="J97">
-        <v>442</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3783,19 +3779,19 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>0.2</v>
@@ -3804,7 +3800,7 @@
         <v>84</v>
       </c>
       <c r="J98">
-        <v>443</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3812,28 +3808,28 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I99">
         <v>84</v>
       </c>
       <c r="J99">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3841,28 +3837,28 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E100">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I100">
         <v>84</v>
       </c>
       <c r="J100">
-        <v>448</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3870,19 +3866,19 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
       </c>
       <c r="E101">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>0.4</v>
@@ -3891,7 +3887,7 @@
         <v>84</v>
       </c>
       <c r="J101">
-        <v>450</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3899,19 +3895,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G102">
         <v>0.2</v>
@@ -3920,7 +3916,7 @@
         <v>84</v>
       </c>
       <c r="J102">
-        <v>451</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3928,28 +3924,28 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I103">
         <v>84</v>
       </c>
       <c r="J103">
-        <v>451</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3957,10 +3953,10 @@
         <v>100</v>
       </c>
       <c r="B104">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -3969,7 +3965,7 @@
         <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>0.4</v>
@@ -3978,7 +3974,7 @@
         <v>84</v>
       </c>
       <c r="J104">
-        <v>454</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3986,28 +3982,28 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
       </c>
       <c r="G105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I105">
         <v>84</v>
       </c>
       <c r="J105">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4015,10 +4011,10 @@
         <v>100</v>
       </c>
       <c r="B106">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -4027,16 +4023,16 @@
         <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
         <v>84</v>
       </c>
       <c r="J106">
-        <v>458</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4044,19 +4040,19 @@
         <v>100</v>
       </c>
       <c r="B107">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E107">
         <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>0.4</v>
@@ -4065,7 +4061,7 @@
         <v>84</v>
       </c>
       <c r="J107">
-        <v>458</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4073,19 +4069,19 @@
         <v>100</v>
       </c>
       <c r="B108">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>0.4</v>
@@ -4094,7 +4090,7 @@
         <v>84</v>
       </c>
       <c r="J108">
-        <v>459</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,19 +4098,19 @@
         <v>100</v>
       </c>
       <c r="B109">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
       <c r="E109">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G109">
         <v>0.2</v>
@@ -4123,7 +4119,7 @@
         <v>84</v>
       </c>
       <c r="J109">
-        <v>461</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4131,20 +4127,20 @@
         <v>100</v>
       </c>
       <c r="B110">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>0.8</v>
+      </c>
+      <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="E110">
-        <v>0.7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>20</v>
-      </c>
       <c r="G110">
         <v>0.4</v>
       </c>
@@ -4152,7 +4148,7 @@
         <v>84</v>
       </c>
       <c r="J110">
-        <v>461</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4160,28 +4156,28 @@
         <v>100</v>
       </c>
       <c r="B111">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I111">
         <v>84</v>
       </c>
       <c r="J111">
-        <v>461</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4189,28 +4185,28 @@
         <v>100</v>
       </c>
       <c r="B112">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112">
         <v>0.7</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
         <v>84</v>
       </c>
       <c r="J112">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4218,28 +4214,28 @@
         <v>100</v>
       </c>
       <c r="B113">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0.7</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
         <v>84</v>
       </c>
       <c r="J113">
-        <v>468</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4247,28 +4243,28 @@
         <v>100</v>
       </c>
       <c r="B114">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
         <v>84</v>
       </c>
       <c r="J114">
-        <v>468</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4276,28 +4272,28 @@
         <v>100</v>
       </c>
       <c r="B115">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
         <v>84</v>
       </c>
       <c r="J115">
-        <v>469</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4305,19 +4301,19 @@
         <v>100</v>
       </c>
       <c r="B116">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>0.4</v>
@@ -4326,7 +4322,7 @@
         <v>84</v>
       </c>
       <c r="J116">
-        <v>469</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4334,28 +4330,28 @@
         <v>100</v>
       </c>
       <c r="B117">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
       <c r="E117">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
         <v>84</v>
       </c>
       <c r="J117">
-        <v>471</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4363,19 +4359,19 @@
         <v>100</v>
       </c>
       <c r="B118">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
       <c r="E118">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G118">
         <v>0.4</v>
@@ -4384,7 +4380,7 @@
         <v>84</v>
       </c>
       <c r="J118">
-        <v>473</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4392,19 +4388,19 @@
         <v>100</v>
       </c>
       <c r="B119">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119">
         <v>0.8</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G119">
         <v>0.2</v>
@@ -4413,7 +4409,7 @@
         <v>84</v>
       </c>
       <c r="J119">
-        <v>479</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4421,19 +4417,19 @@
         <v>100</v>
       </c>
       <c r="B120">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E120">
         <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G120">
         <v>0.4</v>
@@ -4442,7 +4438,7 @@
         <v>84</v>
       </c>
       <c r="J120">
-        <v>483</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4450,28 +4446,28 @@
         <v>100</v>
       </c>
       <c r="B121">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
       <c r="E121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I121">
         <v>84</v>
       </c>
       <c r="J121">
-        <v>484</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4479,28 +4475,28 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
       <c r="E122">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I122">
         <v>84</v>
       </c>
       <c r="J122">
-        <v>487</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4508,19 +4504,19 @@
         <v>100</v>
       </c>
       <c r="B123">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>0.4</v>
@@ -4529,7 +4525,7 @@
         <v>84</v>
       </c>
       <c r="J123">
-        <v>488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4537,28 +4533,28 @@
         <v>100</v>
       </c>
       <c r="B124">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I124">
         <v>84</v>
       </c>
       <c r="J124">
-        <v>491</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4566,28 +4562,28 @@
         <v>100</v>
       </c>
       <c r="B125">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>0.8</v>
+      </c>
+      <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="E125">
-        <v>0.7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>9</v>
-      </c>
       <c r="G125">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I125">
         <v>84</v>
       </c>
       <c r="J125">
-        <v>494</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4595,19 +4591,19 @@
         <v>100</v>
       </c>
       <c r="B126">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G126">
         <v>0.4</v>
@@ -4616,7 +4612,7 @@
         <v>84</v>
       </c>
       <c r="J126">
-        <v>495</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4624,19 +4620,19 @@
         <v>200</v>
       </c>
       <c r="B127">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G127">
         <v>0.2</v>
@@ -4645,7 +4641,7 @@
         <v>84</v>
       </c>
       <c r="J127">
-        <v>655</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4653,19 +4649,19 @@
         <v>200</v>
       </c>
       <c r="B128">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G128">
         <v>0.2</v>
@@ -4674,7 +4670,7 @@
         <v>84</v>
       </c>
       <c r="J128">
-        <v>655</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4682,28 +4678,28 @@
         <v>200</v>
       </c>
       <c r="B129">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129">
         <v>84</v>
       </c>
       <c r="J129">
-        <v>662</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4711,28 +4707,28 @@
         <v>200</v>
       </c>
       <c r="B130">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>0.7</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G130">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I130">
         <v>84</v>
       </c>
       <c r="J130">
-        <v>665</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4740,19 +4736,19 @@
         <v>200</v>
       </c>
       <c r="B131">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131">
         <v>0.4</v>
@@ -4761,7 +4757,7 @@
         <v>84</v>
       </c>
       <c r="J131">
-        <v>668</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4769,28 +4765,28 @@
         <v>200</v>
       </c>
       <c r="B132">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I132">
         <v>84</v>
       </c>
       <c r="J132">
-        <v>675</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4798,28 +4794,28 @@
         <v>200</v>
       </c>
       <c r="B133">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>0.7</v>
+      </c>
+      <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="E133">
-        <v>0.7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>19</v>
-      </c>
       <c r="G133">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I133">
         <v>84</v>
       </c>
       <c r="J133">
-        <v>676</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4827,28 +4823,28 @@
         <v>200</v>
       </c>
       <c r="B134">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I134">
         <v>84</v>
       </c>
       <c r="J134">
-        <v>679</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4856,19 +4852,19 @@
         <v>200</v>
       </c>
       <c r="B135">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G135">
         <v>0.4</v>
@@ -4877,7 +4873,7 @@
         <v>84</v>
       </c>
       <c r="J135">
-        <v>680</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4885,19 +4881,19 @@
         <v>200</v>
       </c>
       <c r="B136">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>0.2</v>
@@ -4906,7 +4902,7 @@
         <v>84</v>
       </c>
       <c r="J136">
-        <v>682</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4914,28 +4910,28 @@
         <v>200</v>
       </c>
       <c r="B137">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I137">
         <v>84</v>
       </c>
       <c r="J137">
-        <v>682</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4943,28 +4939,28 @@
         <v>200</v>
       </c>
       <c r="B138">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>0.8</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I138">
         <v>84</v>
       </c>
       <c r="J138">
-        <v>683</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4972,19 +4968,19 @@
         <v>200</v>
       </c>
       <c r="B139">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>0.8</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G139">
         <v>0.4</v>
@@ -4993,7 +4989,7 @@
         <v>84</v>
       </c>
       <c r="J139">
-        <v>683</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5001,19 +4997,19 @@
         <v>200</v>
       </c>
       <c r="B140">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G140">
         <v>0.2</v>
@@ -5022,7 +5018,7 @@
         <v>84</v>
       </c>
       <c r="J140">
-        <v>685</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5030,10 +5026,10 @@
         <v>200</v>
       </c>
       <c r="B141">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -5042,16 +5038,16 @@
         <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G141">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I141">
         <v>84</v>
       </c>
       <c r="J141">
-        <v>686</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5059,28 +5055,28 @@
         <v>200</v>
       </c>
       <c r="B142">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>0.7</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I142">
         <v>84</v>
       </c>
       <c r="J142">
-        <v>688</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5088,28 +5084,28 @@
         <v>200</v>
       </c>
       <c r="B143">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G143">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I143">
         <v>84</v>
       </c>
       <c r="J143">
-        <v>689</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,19 +5113,19 @@
         <v>200</v>
       </c>
       <c r="B144">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G144">
         <v>0.2</v>
@@ -5138,7 +5134,7 @@
         <v>84</v>
       </c>
       <c r="J144">
-        <v>690</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5146,10 +5142,10 @@
         <v>200</v>
       </c>
       <c r="B145">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -5158,7 +5154,7 @@
         <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G145">
         <v>0.4</v>
@@ -5167,7 +5163,7 @@
         <v>84</v>
       </c>
       <c r="J145">
-        <v>693</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5175,28 +5171,28 @@
         <v>200</v>
       </c>
       <c r="B146">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G146">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I146">
         <v>84</v>
       </c>
       <c r="J146">
-        <v>695</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5204,28 +5200,28 @@
         <v>200</v>
       </c>
       <c r="B147">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E147">
         <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G147">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I147">
         <v>84</v>
       </c>
       <c r="J147">
-        <v>696</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5233,28 +5229,28 @@
         <v>200</v>
       </c>
       <c r="B148">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>0.7</v>
+      </c>
+      <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="E148">
-        <v>0.8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>19</v>
-      </c>
       <c r="G148">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I148">
         <v>84</v>
       </c>
       <c r="J148">
-        <v>697</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5262,19 +5258,19 @@
         <v>200</v>
       </c>
       <c r="B149">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G149">
         <v>0.4</v>
@@ -5283,7 +5279,7 @@
         <v>84</v>
       </c>
       <c r="J149">
-        <v>698</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5291,19 +5287,19 @@
         <v>200</v>
       </c>
       <c r="B150">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E150">
         <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G150">
         <v>0.2</v>
@@ -5312,7 +5308,7 @@
         <v>84</v>
       </c>
       <c r="J150">
-        <v>698</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5320,10 +5316,10 @@
         <v>200</v>
       </c>
       <c r="B151">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -5332,7 +5328,7 @@
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G151">
         <v>0.4</v>
@@ -5341,7 +5337,7 @@
         <v>84</v>
       </c>
       <c r="J151">
-        <v>699</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5349,28 +5345,28 @@
         <v>200</v>
       </c>
       <c r="B152">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E152">
         <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G152">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I152">
         <v>84</v>
       </c>
       <c r="J152">
-        <v>703</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5378,19 +5374,19 @@
         <v>200</v>
       </c>
       <c r="B153">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>0.8</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G153">
         <v>0.4</v>
@@ -5399,7 +5395,7 @@
         <v>84</v>
       </c>
       <c r="J153">
-        <v>704</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5407,19 +5403,19 @@
         <v>200</v>
       </c>
       <c r="B154">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
       </c>
       <c r="E154">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G154">
         <v>0.4</v>
@@ -5428,7 +5424,7 @@
         <v>84</v>
       </c>
       <c r="J154">
-        <v>704</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,10 +5432,10 @@
         <v>200</v>
       </c>
       <c r="B155">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -5448,7 +5444,7 @@
         <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>0.4</v>
@@ -5457,7 +5453,7 @@
         <v>84</v>
       </c>
       <c r="J155">
-        <v>705</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5465,28 +5461,28 @@
         <v>200</v>
       </c>
       <c r="B156">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E156">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G156">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I156">
         <v>84</v>
       </c>
       <c r="J156">
-        <v>710</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5494,19 +5490,19 @@
         <v>200</v>
       </c>
       <c r="B157">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E157">
         <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G157">
         <v>0.4</v>
@@ -5515,7 +5511,7 @@
         <v>84</v>
       </c>
       <c r="J157">
-        <v>713</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5523,19 +5519,19 @@
         <v>200</v>
       </c>
       <c r="B158">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E158">
         <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G158">
         <v>0.2</v>
@@ -5544,7 +5540,7 @@
         <v>84</v>
       </c>
       <c r="J158">
-        <v>727</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5552,28 +5548,28 @@
         <v>200</v>
       </c>
       <c r="B159">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159">
         <v>0.7</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G159">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I159">
         <v>84</v>
       </c>
       <c r="J159">
-        <v>734</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5581,10 +5577,10 @@
         <v>200</v>
       </c>
       <c r="B160">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -5593,7 +5589,7 @@
         <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G160">
         <v>0.2</v>
@@ -5602,7 +5598,7 @@
         <v>84</v>
       </c>
       <c r="J160">
-        <v>741</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5610,28 +5606,28 @@
         <v>200</v>
       </c>
       <c r="B161">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E161">
         <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G161">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I161">
         <v>84</v>
       </c>
       <c r="J161">
-        <v>745</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5639,16 +5635,16 @@
         <v>200</v>
       </c>
       <c r="B162">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5660,7 +5656,7 @@
         <v>84</v>
       </c>
       <c r="J162">
-        <v>754</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5668,19 +5664,19 @@
         <v>200</v>
       </c>
       <c r="B163">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
         <v>13</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G163">
         <v>0.4</v>
@@ -5689,7 +5685,7 @@
         <v>84</v>
       </c>
       <c r="J163">
-        <v>761</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5697,28 +5693,28 @@
         <v>200</v>
       </c>
       <c r="B164">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164">
         <v>0.7</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
         <v>84</v>
       </c>
       <c r="J164">
-        <v>763</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5726,19 +5722,19 @@
         <v>200</v>
       </c>
       <c r="B165">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G165">
         <v>0.4</v>
@@ -5747,7 +5743,7 @@
         <v>84</v>
       </c>
       <c r="J165">
-        <v>764</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5755,28 +5751,28 @@
         <v>200</v>
       </c>
       <c r="B166">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E166">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
       </c>
       <c r="G166">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I166">
         <v>84</v>
       </c>
       <c r="J166">
-        <v>764</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5784,7 +5780,7 @@
         <v>200</v>
       </c>
       <c r="B167">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -5799,13 +5795,13 @@
         <v>9</v>
       </c>
       <c r="G167">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I167">
         <v>84</v>
       </c>
       <c r="J167">
-        <v>767</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5813,19 +5809,19 @@
         <v>200</v>
       </c>
       <c r="B168">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G168">
         <v>0.2</v>
@@ -5834,7 +5830,7 @@
         <v>84</v>
       </c>
       <c r="J168">
-        <v>767</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5842,28 +5838,28 @@
         <v>200</v>
       </c>
       <c r="B169">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E169">
         <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G169">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I169">
         <v>84</v>
       </c>
       <c r="J169">
-        <v>769</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5871,28 +5867,28 @@
         <v>200</v>
       </c>
       <c r="B170">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
       </c>
       <c r="G170">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I170">
         <v>84</v>
       </c>
       <c r="J170">
-        <v>772</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5900,28 +5896,28 @@
         <v>200</v>
       </c>
       <c r="B171">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E171">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G171">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I171">
         <v>84</v>
       </c>
       <c r="J171">
-        <v>776</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,19 +5925,19 @@
         <v>200</v>
       </c>
       <c r="B172">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E172">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F172" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G172">
         <v>0.2</v>
@@ -5950,7 +5946,7 @@
         <v>84</v>
       </c>
       <c r="J172">
-        <v>777</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5958,28 +5954,28 @@
         <v>200</v>
       </c>
       <c r="B173">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E173">
         <v>0.8</v>
       </c>
       <c r="F173" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G173">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I173">
         <v>84</v>
       </c>
       <c r="J173">
-        <v>778</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5987,16 +5983,16 @@
         <v>200</v>
       </c>
       <c r="B174">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="s">
         <v>9</v>
@@ -6008,7 +6004,7 @@
         <v>84</v>
       </c>
       <c r="J174">
-        <v>779</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6016,28 +6012,28 @@
         <v>200</v>
       </c>
       <c r="B175">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G175">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I175">
         <v>84</v>
       </c>
       <c r="J175">
-        <v>780</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6045,19 +6041,19 @@
         <v>200</v>
       </c>
       <c r="B176">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E176">
         <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>0.2</v>
@@ -6066,7 +6062,7 @@
         <v>84</v>
       </c>
       <c r="J176">
-        <v>780</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6074,28 +6070,28 @@
         <v>200</v>
       </c>
       <c r="B177">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E177">
         <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G177">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I177">
         <v>84</v>
       </c>
       <c r="J177">
-        <v>783</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6103,28 +6099,28 @@
         <v>200</v>
       </c>
       <c r="B178">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
       </c>
       <c r="G178">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I178">
         <v>84</v>
       </c>
       <c r="J178">
-        <v>783</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,16 +6128,16 @@
         <v>200</v>
       </c>
       <c r="B179">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="D179" t="s">
-        <v>13</v>
-      </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6153,7 +6149,7 @@
         <v>84</v>
       </c>
       <c r="J179">
-        <v>783</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6161,28 +6157,28 @@
         <v>200</v>
       </c>
       <c r="B180">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="D180" t="s">
-        <v>8</v>
-      </c>
       <c r="E180">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G180">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I180">
         <v>84</v>
       </c>
       <c r="J180">
-        <v>784</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6190,20 +6186,20 @@
         <v>200</v>
       </c>
       <c r="B181">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
         <v>14</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181">
+        <v>0.7</v>
+      </c>
+      <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="E181">
-        <v>0.8</v>
-      </c>
-      <c r="F181" t="s">
-        <v>9</v>
-      </c>
       <c r="G181">
         <v>0.4</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>84</v>
       </c>
       <c r="J181">
-        <v>785</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6219,28 +6215,28 @@
         <v>200</v>
       </c>
       <c r="B182">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
         <v>14</v>
       </c>
-      <c r="D182" t="s">
-        <v>13</v>
-      </c>
       <c r="E182">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F182" t="s">
         <v>9</v>
       </c>
       <c r="G182">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I182">
         <v>84</v>
       </c>
       <c r="J182">
-        <v>786</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6248,13 +6244,13 @@
         <v>200</v>
       </c>
       <c r="B183">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
         <v>14</v>
-      </c>
-      <c r="D183" t="s">
-        <v>8</v>
       </c>
       <c r="E183">
         <v>0.8</v>
@@ -6269,7 +6265,7 @@
         <v>84</v>
       </c>
       <c r="J183">
-        <v>788</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6277,19 +6273,19 @@
         <v>200</v>
       </c>
       <c r="B184">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
         <v>14</v>
       </c>
-      <c r="D184" t="s">
-        <v>8</v>
-      </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G184">
         <v>0.2</v>
@@ -6298,7 +6294,7 @@
         <v>84</v>
       </c>
       <c r="J184">
-        <v>788</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6306,28 +6302,28 @@
         <v>200</v>
       </c>
       <c r="B185">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
         <v>14</v>
       </c>
-      <c r="D185" t="s">
-        <v>8</v>
-      </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
         <v>84</v>
       </c>
       <c r="J185">
-        <v>789</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6335,13 +6331,13 @@
         <v>200</v>
       </c>
       <c r="B186">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E186">
         <v>0.8</v>
@@ -6356,7 +6352,7 @@
         <v>84</v>
       </c>
       <c r="J186">
-        <v>789</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6364,19 +6360,19 @@
         <v>200</v>
       </c>
       <c r="B187">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
         <v>14</v>
       </c>
-      <c r="D187" t="s">
-        <v>12</v>
-      </c>
       <c r="E187">
         <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G187">
         <v>0.4</v>
@@ -6385,7 +6381,7 @@
         <v>84</v>
       </c>
       <c r="J187">
-        <v>791</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6393,19 +6389,19 @@
         <v>200</v>
       </c>
       <c r="B188">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G188">
         <v>0.2</v>
@@ -6414,7 +6410,7 @@
         <v>84</v>
       </c>
       <c r="J188">
-        <v>791</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6422,19 +6418,19 @@
         <v>200</v>
       </c>
       <c r="B189">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
         <v>14</v>
       </c>
-      <c r="D189" t="s">
-        <v>8</v>
-      </c>
       <c r="E189">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G189">
         <v>0.4</v>
@@ -6443,7 +6439,7 @@
         <v>84</v>
       </c>
       <c r="J189">
-        <v>791</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6451,19 +6447,19 @@
         <v>200</v>
       </c>
       <c r="B190">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>0.7</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G190">
         <v>0.2</v>
@@ -6472,7 +6468,7 @@
         <v>84</v>
       </c>
       <c r="J190">
-        <v>791</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6480,13 +6476,13 @@
         <v>200</v>
       </c>
       <c r="B191">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E191">
         <v>0.7</v>
@@ -6501,7 +6497,7 @@
         <v>84</v>
       </c>
       <c r="J191">
-        <v>792</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6509,28 +6505,28 @@
         <v>200</v>
       </c>
       <c r="B192">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G192">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I192">
         <v>84</v>
       </c>
       <c r="J192">
-        <v>793</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,13 +6534,13 @@
         <v>200</v>
       </c>
       <c r="B193">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>0.7</v>
@@ -6553,13 +6549,13 @@
         <v>10</v>
       </c>
       <c r="G193">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I193">
         <v>84</v>
       </c>
       <c r="J193">
-        <v>793</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6567,28 +6563,28 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
       </c>
       <c r="G194">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I194">
         <v>84</v>
       </c>
       <c r="J194">
-        <v>794</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6596,13 +6592,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E195">
         <v>0.7</v>
@@ -6617,7 +6613,7 @@
         <v>84</v>
       </c>
       <c r="J195">
-        <v>795</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6625,19 +6621,19 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G196">
         <v>0.2</v>
@@ -6646,7 +6642,7 @@
         <v>84</v>
       </c>
       <c r="J196">
-        <v>799</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6654,10 +6650,10 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
@@ -6666,7 +6662,7 @@
         <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G197">
         <v>0.4</v>
@@ -6675,7 +6671,7 @@
         <v>84</v>
       </c>
       <c r="J197">
-        <v>801</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6683,13 +6679,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <v>0.8</v>
@@ -6704,7 +6700,7 @@
         <v>84</v>
       </c>
       <c r="J198">
-        <v>802</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6712,19 +6708,19 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <v>0.4</v>
@@ -6733,7 +6729,7 @@
         <v>84</v>
       </c>
       <c r="J199">
-        <v>802</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6741,19 +6737,19 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>0.8</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G200">
         <v>0.2</v>
@@ -6762,7 +6758,7 @@
         <v>84</v>
       </c>
       <c r="J200">
-        <v>805</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6770,28 +6766,28 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E201">
         <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G201">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I201">
         <v>84</v>
       </c>
       <c r="J201">
-        <v>807</v>
+        <v>187</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6799,13 +6795,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>0.8</v>
@@ -6814,13 +6810,13 @@
         <v>10</v>
       </c>
       <c r="G202">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I202">
         <v>84</v>
       </c>
       <c r="J202">
-        <v>807</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6828,13 +6824,13 @@
         <v>200</v>
       </c>
       <c r="B203">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E203">
         <v>0.8</v>
@@ -6843,13 +6839,13 @@
         <v>10</v>
       </c>
       <c r="G203">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I203">
         <v>84</v>
       </c>
       <c r="J203">
-        <v>807</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6857,28 +6853,28 @@
         <v>200</v>
       </c>
       <c r="B204">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
         <v>84</v>
       </c>
       <c r="J204">
-        <v>809</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6886,19 +6882,19 @@
         <v>200</v>
       </c>
       <c r="B205">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G205">
         <v>0.4</v>
@@ -6907,7 +6903,7 @@
         <v>84</v>
       </c>
       <c r="J205">
-        <v>810</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6915,13 +6911,13 @@
         <v>200</v>
       </c>
       <c r="B206">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E206">
         <v>0.7</v>
@@ -6936,7 +6932,7 @@
         <v>84</v>
       </c>
       <c r="J206">
-        <v>812</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6944,10 +6940,10 @@
         <v>200</v>
       </c>
       <c r="B207">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
@@ -6956,16 +6952,16 @@
         <v>0.7</v>
       </c>
       <c r="F207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G207">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I207">
         <v>84</v>
       </c>
       <c r="J207">
-        <v>813</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6973,13 +6969,13 @@
         <v>200</v>
       </c>
       <c r="B208">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E208">
         <v>0.7</v>
@@ -6994,7 +6990,7 @@
         <v>84</v>
       </c>
       <c r="J208">
-        <v>816</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7002,10 +6998,10 @@
         <v>200</v>
       </c>
       <c r="B209">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
         <v>12</v>
@@ -7023,7 +7019,7 @@
         <v>84</v>
       </c>
       <c r="J209">
-        <v>817</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7031,10 +7027,10 @@
         <v>200</v>
       </c>
       <c r="B210">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D210" t="s">
         <v>12</v>
@@ -7052,7 +7048,7 @@
         <v>84</v>
       </c>
       <c r="J210">
-        <v>819</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7060,28 +7056,28 @@
         <v>200</v>
       </c>
       <c r="B211">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G211">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I211">
         <v>84</v>
       </c>
       <c r="J211">
-        <v>823</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7089,19 +7085,19 @@
         <v>200</v>
       </c>
       <c r="B212">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G212">
         <v>0.2</v>
@@ -7110,7 +7106,7 @@
         <v>84</v>
       </c>
       <c r="J212">
-        <v>824</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7118,19 +7114,19 @@
         <v>200</v>
       </c>
       <c r="B213">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E213">
         <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G213">
         <v>0.4</v>
@@ -7139,7 +7135,7 @@
         <v>84</v>
       </c>
       <c r="J213">
-        <v>825</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7147,19 +7143,19 @@
         <v>200</v>
       </c>
       <c r="B214">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E214">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G214">
         <v>0.2</v>
@@ -7168,7 +7164,7 @@
         <v>84</v>
       </c>
       <c r="J214">
-        <v>827</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7176,19 +7172,19 @@
         <v>200</v>
       </c>
       <c r="B215">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E215">
         <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G215">
         <v>0.4</v>
@@ -7197,7 +7193,7 @@
         <v>84</v>
       </c>
       <c r="J215">
-        <v>831</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7205,28 +7201,28 @@
         <v>200</v>
       </c>
       <c r="B216">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G216">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I216">
         <v>84</v>
       </c>
       <c r="J216">
-        <v>834</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7234,19 +7230,19 @@
         <v>200</v>
       </c>
       <c r="B217">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G217">
         <v>0.4</v>
@@ -7255,7 +7251,7 @@
         <v>84</v>
       </c>
       <c r="J217">
-        <v>835</v>
+        <v>183</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7263,13 +7259,13 @@
         <v>200</v>
       </c>
       <c r="B218">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E218">
         <v>0.8</v>
@@ -7284,7 +7280,7 @@
         <v>84</v>
       </c>
       <c r="J218">
-        <v>837</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7292,19 +7288,19 @@
         <v>200</v>
       </c>
       <c r="B219">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G219">
         <v>0.4</v>
@@ -7313,7 +7309,7 @@
         <v>84</v>
       </c>
       <c r="J219">
-        <v>838</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7321,28 +7317,28 @@
         <v>200</v>
       </c>
       <c r="B220">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D220" t="s">
         <v>12</v>
       </c>
       <c r="E220">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G220">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I220">
         <v>84</v>
       </c>
       <c r="J220">
-        <v>840</v>
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7350,28 +7346,28 @@
         <v>200</v>
       </c>
       <c r="B221">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E221">
         <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G221">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I221">
         <v>84</v>
       </c>
       <c r="J221">
-        <v>841</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7379,19 +7375,19 @@
         <v>200</v>
       </c>
       <c r="B222">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E222">
         <v>0.7</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G222">
         <v>0.2</v>
@@ -7400,7 +7396,7 @@
         <v>84</v>
       </c>
       <c r="J222">
-        <v>842</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7408,19 +7404,19 @@
         <v>200</v>
       </c>
       <c r="B223">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E223">
         <v>0.7</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G223">
         <v>0.4</v>
@@ -7429,7 +7425,7 @@
         <v>84</v>
       </c>
       <c r="J223">
-        <v>846</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7437,28 +7433,28 @@
         <v>200</v>
       </c>
       <c r="B224">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I224">
         <v>84</v>
       </c>
       <c r="J224">
-        <v>847</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7466,19 +7462,19 @@
         <v>200</v>
       </c>
       <c r="B225">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G225">
         <v>0.4</v>
@@ -7487,7 +7483,7 @@
         <v>84</v>
       </c>
       <c r="J225">
-        <v>850</v>
+        <v>152</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7495,10 +7491,10 @@
         <v>200</v>
       </c>
       <c r="B226">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D226" t="s">
         <v>13</v>
@@ -7507,16 +7503,16 @@
         <v>0.7</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G226">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I226">
         <v>84</v>
       </c>
       <c r="J226">
-        <v>852</v>
+        <v>166</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7524,28 +7520,28 @@
         <v>200</v>
       </c>
       <c r="B227">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
       </c>
       <c r="G227">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I227">
         <v>84</v>
       </c>
       <c r="J227">
-        <v>855</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7553,28 +7549,28 @@
         <v>200</v>
       </c>
       <c r="B228">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F228" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G228">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I228">
         <v>84</v>
       </c>
       <c r="J228">
-        <v>856</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7582,19 +7578,19 @@
         <v>200</v>
       </c>
       <c r="B229">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G229">
         <v>0.4</v>
@@ -7603,7 +7599,7 @@
         <v>84</v>
       </c>
       <c r="J229">
-        <v>857</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7611,28 +7607,28 @@
         <v>200</v>
       </c>
       <c r="B230">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="s">
         <v>9</v>
       </c>
       <c r="G230">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I230">
         <v>84</v>
       </c>
       <c r="J230">
-        <v>865</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7640,19 +7636,19 @@
         <v>200</v>
       </c>
       <c r="B231">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E231">
         <v>0.8</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G231">
         <v>0.4</v>
@@ -7661,7 +7657,7 @@
         <v>84</v>
       </c>
       <c r="J231">
-        <v>866</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7669,19 +7665,19 @@
         <v>200</v>
       </c>
       <c r="B232">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D232" t="s">
         <v>13</v>
       </c>
       <c r="E232">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G232">
         <v>0.2</v>
@@ -7690,7 +7686,7 @@
         <v>84</v>
       </c>
       <c r="J232">
-        <v>867</v>
+        <v>148</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7698,28 +7694,28 @@
         <v>200</v>
       </c>
       <c r="B233">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E233">
         <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G233">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I233">
         <v>84</v>
       </c>
       <c r="J233">
-        <v>868</v>
+        <v>185</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7727,28 +7723,28 @@
         <v>200</v>
       </c>
       <c r="B234">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G234">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I234">
         <v>84</v>
       </c>
       <c r="J234">
-        <v>870</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7756,16 +7752,16 @@
         <v>200</v>
       </c>
       <c r="B235">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E235">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7777,7 +7773,7 @@
         <v>84</v>
       </c>
       <c r="J235">
-        <v>875</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7785,28 +7781,28 @@
         <v>200</v>
       </c>
       <c r="B236">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236">
+        <v>0.8</v>
+      </c>
+      <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="E236">
-        <v>0.8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>9</v>
-      </c>
       <c r="G236">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I236">
         <v>84</v>
       </c>
       <c r="J236">
-        <v>880</v>
+        <v>166</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7814,28 +7810,28 @@
         <v>200</v>
       </c>
       <c r="B237">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G237">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I237">
         <v>84</v>
       </c>
       <c r="J237">
-        <v>888</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7843,19 +7839,19 @@
         <v>200</v>
       </c>
       <c r="B238">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G238">
         <v>0.2</v>
@@ -7864,7 +7860,7 @@
         <v>84</v>
       </c>
       <c r="J238">
-        <v>888</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7872,19 +7868,19 @@
         <v>200</v>
       </c>
       <c r="B239">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G239">
         <v>0.4</v>
@@ -7893,7 +7889,7 @@
         <v>84</v>
       </c>
       <c r="J239">
-        <v>892</v>
+        <v>844</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7901,19 +7897,19 @@
         <v>200</v>
       </c>
       <c r="B240">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G240">
         <v>0.2</v>
@@ -7922,7 +7918,7 @@
         <v>84</v>
       </c>
       <c r="J240">
-        <v>899</v>
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7930,19 +7926,19 @@
         <v>200</v>
       </c>
       <c r="B241">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G241">
         <v>0.4</v>
@@ -7951,7 +7947,7 @@
         <v>84</v>
       </c>
       <c r="J241">
-        <v>901</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -7959,28 +7955,28 @@
         <v>200</v>
       </c>
       <c r="B242">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G242">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I242">
         <v>84</v>
       </c>
       <c r="J242">
-        <v>902</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7988,19 +7984,19 @@
         <v>200</v>
       </c>
       <c r="B243">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E243">
         <v>0.7</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G243">
         <v>0.4</v>
@@ -8009,7 +8005,7 @@
         <v>84</v>
       </c>
       <c r="J243">
-        <v>903</v>
+        <v>171</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8017,19 +8013,19 @@
         <v>200</v>
       </c>
       <c r="B244">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G244">
         <v>0.2</v>
@@ -8038,7 +8034,7 @@
         <v>84</v>
       </c>
       <c r="J244">
-        <v>903</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8046,28 +8042,28 @@
         <v>200</v>
       </c>
       <c r="B245">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G245">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I245">
         <v>84</v>
       </c>
       <c r="J245">
-        <v>915</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8075,19 +8071,19 @@
         <v>200</v>
       </c>
       <c r="B246">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E246">
         <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G246">
         <v>0.2</v>
@@ -8096,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="J246">
-        <v>938</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8104,19 +8100,19 @@
         <v>200</v>
       </c>
       <c r="B247">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G247">
         <v>0.4</v>
@@ -8125,7 +8121,7 @@
         <v>84</v>
       </c>
       <c r="J247">
-        <v>939</v>
+        <v>164</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8133,28 +8129,28 @@
         <v>200</v>
       </c>
       <c r="B248">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E248">
         <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G248">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I248">
         <v>84</v>
       </c>
       <c r="J248">
-        <v>939</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8162,19 +8158,19 @@
         <v>200</v>
       </c>
       <c r="B249">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E249">
         <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G249">
         <v>0.4</v>
@@ -8183,7 +8179,7 @@
         <v>84</v>
       </c>
       <c r="J249">
-        <v>944</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -8191,19 +8187,19 @@
         <v>200</v>
       </c>
       <c r="B250">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E250">
         <v>0.8</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G250">
         <v>0.4</v>
@@ -8212,7 +8208,7 @@
         <v>84</v>
       </c>
       <c r="J250">
-        <v>944</v>
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8220,19 +8216,19 @@
         <v>200</v>
       </c>
       <c r="B251">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F251" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G251">
         <v>0.4</v>
@@ -8241,7 +8237,7 @@
         <v>84</v>
       </c>
       <c r="J251">
-        <v>968</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8249,28 +8245,28 @@
         <v>200</v>
       </c>
       <c r="B252">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G252">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I252">
         <v>84</v>
       </c>
       <c r="J252">
-        <v>969</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8278,28 +8274,28 @@
         <v>200</v>
       </c>
       <c r="B253">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253">
+        <v>0.8</v>
+      </c>
+      <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="E253">
-        <v>0.7</v>
-      </c>
-      <c r="F253" t="s">
-        <v>19</v>
-      </c>
       <c r="G253">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I253">
         <v>84</v>
       </c>
       <c r="J253">
-        <v>987</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -8307,13 +8303,13 @@
         <v>100</v>
       </c>
       <c r="B254">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E254">
         <v>0.7</v>
@@ -8328,7 +8324,7 @@
         <v>86</v>
       </c>
       <c r="J254">
-        <v>404</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -8336,13 +8332,13 @@
         <v>100</v>
       </c>
       <c r="B255">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E255">
         <v>0.8</v>
@@ -8357,7 +8353,7 @@
         <v>86</v>
       </c>
       <c r="J255">
-        <v>413</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8365,10 +8361,10 @@
         <v>100</v>
       </c>
       <c r="B256">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D256" t="s">
         <v>12</v>
@@ -8386,7 +8382,7 @@
         <v>86</v>
       </c>
       <c r="J256">
-        <v>429</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -8394,13 +8390,13 @@
         <v>100</v>
       </c>
       <c r="B257">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E257">
         <v>0.8</v>
@@ -8415,7 +8411,7 @@
         <v>86</v>
       </c>
       <c r="J257">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -8423,7 +8419,7 @@
         <v>200</v>
       </c>
       <c r="B258">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -8444,7 +8440,7 @@
         <v>86</v>
       </c>
       <c r="J258">
-        <v>810</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
